--- a/output/GHA.xlsx
+++ b/output/GHA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,27 +456,47 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4. Agriculture land area (% of land area)</t>
+          <t>4. Agriculture land area (% of land area)_x</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>4. Agriculture land area (% of land area)_y</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>5. Average precipitation (mm)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>7. Fertilizer consumption (kilograms per hectare of arable land)</t>
-        </is>
-      </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>13. Population</t>
+          <t>7. Fertilizer consumption (kilograms per hectare of arable land)_x</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+          <t>7. Fertilizer consumption (kilograms per hectare of arable land)_y</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population_x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population_y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)_x</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)_y</t>
         </is>
       </c>
     </row>
@@ -487,29 +507,1076 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>34.69</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="E2" t="n">
+        <v>55.90225894</v>
+      </c>
+      <c r="F2" t="n">
+        <v>55.90225894</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1163.38</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.857142857</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.857142857</v>
+      </c>
+      <c r="J2" t="n">
+        <v>15843471</v>
+      </c>
+      <c r="K2" t="n">
+        <v>15843471</v>
+      </c>
+      <c r="L2" t="n">
+        <v>63.436070381</v>
+      </c>
+      <c r="M2" t="n">
+        <v>63.436070381</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>27.06</v>
+      </c>
+      <c r="E3" t="n">
+        <v>55.90225894</v>
+      </c>
+      <c r="F3" t="n">
+        <v>55.90225894</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1144.1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.607142857</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.607142857</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16241548</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16241548</v>
+      </c>
+      <c r="L3" t="n">
+        <v>62.3793328620264</v>
+      </c>
+      <c r="M3" t="n">
+        <v>62.3793328620264</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>56.25384548</v>
+      </c>
+      <c r="F4" t="n">
+        <v>56.25384548</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1170</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.702857143</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.702857143</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16643633</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16643633</v>
+      </c>
+      <c r="L4" t="n">
+        <v>61.4648399714138</v>
+      </c>
+      <c r="M4" t="n">
+        <v>61.4648399714138</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="E5" t="n">
+        <v>56.69332865</v>
+      </c>
+      <c r="F5" t="n">
+        <v>56.69332865</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1171.1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="J5" t="n">
+        <v>17040854</v>
+      </c>
+      <c r="K5" t="n">
+        <v>17040854</v>
+      </c>
+      <c r="L5" t="n">
+        <v>60.514120660709</v>
+      </c>
+      <c r="M5" t="n">
+        <v>60.514120660709</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="E6" t="n">
+        <v>57.57229498</v>
+      </c>
+      <c r="F6" t="n">
+        <v>57.57229498</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1192.52</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3.233333333</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.233333333</v>
+      </c>
+      <c r="J6" t="n">
+        <v>17438874</v>
+      </c>
+      <c r="K6" t="n">
+        <v>17438874</v>
+      </c>
+      <c r="L6" t="n">
+        <v>59.446742535115</v>
+      </c>
+      <c r="M6" t="n">
+        <v>59.446742535115</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>45.76</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="E7" t="n">
+        <v>58.45126132</v>
+      </c>
+      <c r="F7" t="n">
+        <v>58.45126132</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1178.3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5.4375</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5.4375</v>
+      </c>
+      <c r="J7" t="n">
+        <v>17844010</v>
+      </c>
+      <c r="K7" t="n">
+        <v>17844010</v>
+      </c>
+      <c r="L7" t="n">
+        <v>58.3943247651104</v>
+      </c>
+      <c r="M7" t="n">
+        <v>58.3943247651104</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>27.48</v>
+      </c>
+      <c r="E8" t="n">
+        <v>59.69365826</v>
+      </c>
+      <c r="F8" t="n">
+        <v>59.69365826</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1171.78</v>
+      </c>
+      <c r="H8" t="n">
+        <v>5.921111111</v>
+      </c>
+      <c r="I8" t="n">
+        <v>5.921111111</v>
+      </c>
+      <c r="J8" t="n">
+        <v>18268040</v>
+      </c>
+      <c r="K8" t="n">
+        <v>18268040</v>
+      </c>
+      <c r="L8" t="n">
+        <v>57.184727688144</v>
+      </c>
+      <c r="M8" t="n">
+        <v>57.184727688144</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>48.63</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="E9" t="n">
+        <v>57.06781533</v>
+      </c>
+      <c r="F9" t="n">
+        <v>57.06781533</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1161.19</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.161988062</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4.161988062</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18714708</v>
+      </c>
+      <c r="K9" t="n">
+        <v>18714708</v>
+      </c>
+      <c r="L9" t="n">
+        <v>56.0875121904645</v>
+      </c>
+      <c r="M9" t="n">
+        <v>56.0875121904645</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>51.43</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>27.44</v>
+      </c>
+      <c r="E10" t="n">
+        <v>57.3945258</v>
+      </c>
+      <c r="F10" t="n">
+        <v>57.3945258</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1166.62</v>
+      </c>
+      <c r="H10" t="n">
+        <v>4.16771157</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.16771157</v>
+      </c>
+      <c r="J10" t="n">
+        <v>19176791</v>
+      </c>
+      <c r="K10" t="n">
+        <v>19176791</v>
+      </c>
+      <c r="L10" t="n">
+        <v>54.9450549450549</v>
+      </c>
+      <c r="M10" t="n">
+        <v>54.9450549450549</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>51.53</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="E11" t="n">
+        <v>56.10231212</v>
+      </c>
+      <c r="F11" t="n">
+        <v>56.10231212</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1166.21</v>
+      </c>
+      <c r="H11" t="n">
+        <v>3.174027048</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.174027048</v>
+      </c>
+      <c r="J11" t="n">
+        <v>19665502</v>
+      </c>
+      <c r="K11" t="n">
+        <v>19665502</v>
+      </c>
+      <c r="L11" t="n">
+        <v>53.1266830081649</v>
+      </c>
+      <c r="M11" t="n">
+        <v>53.1266830081649</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="E12" t="n">
+        <v>56.68467434</v>
+      </c>
+      <c r="F12" t="n">
+        <v>56.68467434</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1169.02</v>
+      </c>
+      <c r="H12" t="n">
+        <v>8.18001226</v>
+      </c>
+      <c r="I12" t="n">
+        <v>8.18001226</v>
+      </c>
+      <c r="J12" t="n">
+        <v>20195577</v>
+      </c>
+      <c r="K12" t="n">
+        <v>20195577</v>
+      </c>
+      <c r="L12" t="n">
+        <v>53.5926981314993</v>
+      </c>
+      <c r="M12" t="n">
+        <v>53.5926981314993</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>59.72</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="E13" t="n">
+        <v>57.35466072</v>
+      </c>
+      <c r="F13" t="n">
+        <v>57.35466072</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1172.49</v>
+      </c>
+      <c r="H13" t="n">
+        <v>4.076763319</v>
+      </c>
+      <c r="I13" t="n">
+        <v>4.076763319</v>
+      </c>
+      <c r="J13" t="n">
+        <v>20758326</v>
+      </c>
+      <c r="K13" t="n">
+        <v>20758326</v>
+      </c>
+      <c r="L13" t="n">
+        <v>53.9755670525634</v>
+      </c>
+      <c r="M13" t="n">
+        <v>53.9755670525634</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="E14" t="n">
+        <v>55.33589347</v>
+      </c>
+      <c r="F14" t="n">
+        <v>55.33589347</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1184.15</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7.358455402</v>
+      </c>
+      <c r="I14" t="n">
+        <v>7.358455402</v>
+      </c>
+      <c r="J14" t="n">
+        <v>21329514</v>
+      </c>
+      <c r="K14" t="n">
+        <v>21329514</v>
+      </c>
+      <c r="L14" t="n">
+        <v>54.2666944584696</v>
+      </c>
+      <c r="M14" t="n">
+        <v>54.2666944584696</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>64.91</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="E15" t="n">
+        <v>52.16477938</v>
+      </c>
+      <c r="F15" t="n">
+        <v>52.16477938</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1177.05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>13.40902475</v>
+      </c>
+      <c r="I15" t="n">
+        <v>13.40902475</v>
+      </c>
+      <c r="J15" t="n">
+        <v>21906444</v>
+      </c>
+      <c r="K15" t="n">
+        <v>21906444</v>
+      </c>
+      <c r="L15" t="n">
+        <v>54.5363192972876</v>
+      </c>
+      <c r="M15" t="n">
+        <v>54.5363192972876</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>66.73</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E16" t="n">
+        <v>53.26351235</v>
+      </c>
+      <c r="F16" t="n">
+        <v>53.26351235</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1192.22</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6.019740534</v>
+      </c>
+      <c r="I16" t="n">
+        <v>6.019740534</v>
+      </c>
+      <c r="J16" t="n">
+        <v>22496951</v>
+      </c>
+      <c r="K16" t="n">
+        <v>22496951</v>
+      </c>
+      <c r="L16" t="n">
+        <v>54.6411888759255</v>
+      </c>
+      <c r="M16" t="n">
+        <v>54.6411888759255</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>68.47</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="E17" t="n">
+        <v>52.93043992</v>
+      </c>
+      <c r="F17" t="n">
+        <v>52.93043992</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1201.59</v>
+      </c>
+      <c r="H17" t="n">
+        <v>20.88362747</v>
+      </c>
+      <c r="I17" t="n">
+        <v>20.88362747</v>
+      </c>
+      <c r="J17" t="n">
+        <v>23098586</v>
+      </c>
+      <c r="K17" t="n">
+        <v>23098586</v>
+      </c>
+      <c r="L17" t="n">
+        <v>54.8964414928147</v>
+      </c>
+      <c r="M17" t="n">
+        <v>54.8964414928147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>66.27</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="E18" t="n">
+        <v>54.81344818</v>
+      </c>
+      <c r="F18" t="n">
+        <v>54.81344818</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1180.53</v>
+      </c>
+      <c r="H18" t="n">
+        <v>18.70588619</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.70588619</v>
+      </c>
+      <c r="J18" t="n">
+        <v>23708320</v>
+      </c>
+      <c r="K18" t="n">
+        <v>23708320</v>
+      </c>
+      <c r="L18" t="n">
+        <v>51.9201930932183</v>
+      </c>
+      <c r="M18" t="n">
+        <v>51.9201930932183</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="E19" t="n">
+        <v>52.75890261</v>
+      </c>
+      <c r="F19" t="n">
+        <v>52.75890261</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1174.78</v>
+      </c>
+      <c r="H19" t="n">
+        <v>15.84987316</v>
+      </c>
+      <c r="I19" t="n">
+        <v>15.84987316</v>
+      </c>
+      <c r="J19" t="n">
+        <v>24326087</v>
+      </c>
+      <c r="K19" t="n">
+        <v>24326087</v>
+      </c>
+      <c r="L19" t="n">
+        <v>48.5831659463895</v>
+      </c>
+      <c r="M19" t="n">
+        <v>48.5831659463895</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="E20" t="n">
+        <v>54.10242287</v>
+      </c>
+      <c r="F20" t="n">
+        <v>54.10242287</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1176.74</v>
+      </c>
+      <c r="H20" t="n">
+        <v>20.89120943</v>
+      </c>
+      <c r="I20" t="n">
+        <v>20.89120943</v>
+      </c>
+      <c r="J20" t="n">
+        <v>24950762</v>
+      </c>
+      <c r="K20" t="n">
+        <v>24950762</v>
+      </c>
+      <c r="L20" t="n">
+        <v>45.3955956245759</v>
+      </c>
+      <c r="M20" t="n">
+        <v>45.3955956245759</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>27.76</v>
+      </c>
+      <c r="E21" t="n">
+        <v>54.49783774</v>
+      </c>
+      <c r="F21" t="n">
+        <v>54.49783774</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1192.15</v>
+      </c>
+      <c r="H21" t="n">
+        <v>20.43722678</v>
+      </c>
+      <c r="I21" t="n">
+        <v>20.43722678</v>
+      </c>
+      <c r="J21" t="n">
+        <v>25574719</v>
+      </c>
+      <c r="K21" t="n">
+        <v>25574719</v>
+      </c>
+      <c r="L21" t="n">
+        <v>41.9954388582183</v>
+      </c>
+      <c r="M21" t="n">
+        <v>41.9954388582183</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="E22" t="n">
+        <v>54.09091017</v>
+      </c>
+      <c r="F22" t="n">
+        <v>54.09091017</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1184.56</v>
+      </c>
+      <c r="H22" t="n">
+        <v>14.6056991</v>
+      </c>
+      <c r="I22" t="n">
+        <v>14.6056991</v>
+      </c>
+      <c r="J22" t="n">
+        <v>26205941</v>
+      </c>
+      <c r="K22" t="n">
+        <v>26205941</v>
+      </c>
+      <c r="L22" t="n">
+        <v>42.8580293817781</v>
+      </c>
+      <c r="M22" t="n">
+        <v>42.8580293817781</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="E23" t="n">
+        <v>54.27765843</v>
+      </c>
+      <c r="F23" t="n">
+        <v>54.27765843</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1194.81</v>
+      </c>
+      <c r="H23" t="n">
+        <v>37.78139462</v>
+      </c>
+      <c r="I23" t="n">
+        <v>37.78139462</v>
+      </c>
+      <c r="J23" t="n">
+        <v>26858762</v>
+      </c>
+      <c r="K23" t="n">
+        <v>26858762</v>
+      </c>
+      <c r="L23" t="n">
+        <v>44.205608490377</v>
+      </c>
+      <c r="M23" t="n">
+        <v>44.205608490377</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="E24" t="n">
+        <v>54.77312165</v>
+      </c>
+      <c r="F24" t="n">
+        <v>54.77312165</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1147.03</v>
+      </c>
+      <c r="H24" t="n">
+        <v>27.15351507</v>
+      </c>
+      <c r="I24" t="n">
+        <v>27.15351507</v>
+      </c>
+      <c r="J24" t="n">
+        <v>27525597</v>
+      </c>
+      <c r="K24" t="n">
+        <v>27525597</v>
+      </c>
+      <c r="L24" t="n">
+        <v>45.3794884561417</v>
+      </c>
+      <c r="M24" t="n">
+        <v>45.3794884561417</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>2014</v>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>99.33</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D25" t="n">
         <v>27.9</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E25" t="n">
         <v>54.38452492</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F25" t="n">
+        <v>54.38452492</v>
+      </c>
+      <c r="G25" t="n">
         <v>1175.55</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H25" t="n">
         <v>16.69546937</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I25" t="n">
+        <v>16.69546937</v>
+      </c>
+      <c r="J25" t="n">
         <v>28196358</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K25" t="n">
+        <v>28196358</v>
+      </c>
+      <c r="L25" t="n">
+        <v>40.4439000303461</v>
+      </c>
+      <c r="M25" t="n">
         <v>40.4439000303461</v>
       </c>
     </row>

--- a/output/GHA.xlsx
+++ b/output/GHA.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>4. Agriculture land area (% of land area)</t>
+          <t>3. Agricultural land area (sq. km)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -488,7 +488,7 @@
         <v>99.33</v>
       </c>
       <c r="D2" t="n">
-        <v>54.38452492</v>
+        <v>123746.548002968</v>
       </c>
       <c r="E2" t="n">
         <v>1187</v>
@@ -516,7 +516,7 @@
         <v>99.62</v>
       </c>
       <c r="D3" t="n">
-        <v>54.56409642</v>
+        <v>124155.144994068</v>
       </c>
       <c r="E3" t="n">
         <v>1187</v>
@@ -544,7 +544,7 @@
         <v>101.05</v>
       </c>
       <c r="D4" t="n">
-        <v>54.31107585</v>
+        <v>123579.42198909</v>
       </c>
       <c r="E4" t="n">
         <v>1187</v>
@@ -572,7 +572,7 @@
         <v>108.02</v>
       </c>
       <c r="D5" t="n">
-        <v>53.10698734</v>
+        <v>120839.638993436</v>
       </c>
       <c r="E5" t="n">
         <v>1187</v>
@@ -600,7 +600,7 @@
         <v>113.29</v>
       </c>
       <c r="D6" t="n">
-        <v>53.69403885</v>
+        <v>122175.41599929</v>
       </c>
       <c r="E6" t="n">
         <v>1187</v>
@@ -628,7 +628,7 @@
         <v>119.88</v>
       </c>
       <c r="D7" t="n">
-        <v>54.84738639</v>
+        <v>124799.742991806</v>
       </c>
       <c r="E7" t="n">
         <v>1187</v>
@@ -656,7 +656,7 @@
         <v>123.03</v>
       </c>
       <c r="D8" t="n">
-        <v>55.39301991</v>
+        <v>126037.3999918203</v>
       </c>
       <c r="E8" t="n">
         <v>1187</v>
@@ -684,7 +684,7 @@
         <v>131.73</v>
       </c>
       <c r="D9" t="n">
-        <v>55.39301991</v>
+        <v>126037.3999918203</v>
       </c>
       <c r="E9" t="n">
         <v>1187</v>

--- a/output/GHA.xlsx
+++ b/output/GHA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,27 +451,102 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3. Agricultural land area (sq. km)</t>
+          <t>1. Mean air temperature</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>10. PM2.5 air pollution, mean annual exposure (micrograms per cubic meter)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>11. Arable land (hectares)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>12. Livestock production index (2014-2016 = 100)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>13. Population</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>14. Fertilizers by Nutrient (phosphate P2O5)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>16. Population living in slums (% of urban population)</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>18. Temperature change on land</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>19. Fertilizers by Nutrient (nitrogen N)</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2. Energy use in agriculture</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>20. Agriculture land area (sq. km)</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>21. Employment in agriculture</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>3. Land area (sq. km)</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>4. Agriculture land area (% of land area)</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
           <t>5. Average precipitation (mm per year)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>6. Permanent cropland (% of land area)</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>7. Fertilizer consumption (kilograms per hectare of arable land)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>13. Population</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17. Employment in agriculture (% of total employment) (modeled ILO estimate)</t>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>8. Annual freshwater withdrawals, total (billion cubic meters)</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>9. Fertilizers by Nutrient (potash K2O)</t>
         </is>
       </c>
     </row>
@@ -482,26 +557,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C2" t="n">
-        <v>99.33</v>
-      </c>
+        <v>1950</v>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>123746.548002968</v>
-      </c>
-      <c r="E2" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F2" t="n">
-        <v>16.69546937</v>
-      </c>
-      <c r="G2" t="n">
-        <v>28196358</v>
-      </c>
-      <c r="H2" t="n">
-        <v>40.4439000303461</v>
-      </c>
+        <v>27.1</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -510,26 +590,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2015</v>
-      </c>
-      <c r="C3" t="n">
-        <v>99.62</v>
-      </c>
+        <v>1951</v>
+      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="n">
-        <v>124155.144994068</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F3" t="n">
-        <v>24.97416763</v>
-      </c>
-      <c r="G3" t="n">
-        <v>28870939</v>
-      </c>
-      <c r="H3" t="n">
-        <v>35.1775904297479</v>
-      </c>
+        <v>27.27</v>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -538,26 +623,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2016</v>
-      </c>
-      <c r="C4" t="n">
-        <v>101.05</v>
-      </c>
+        <v>1952</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>123579.42198909</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F4" t="n">
-        <v>22.29418005</v>
-      </c>
-      <c r="G4" t="n">
-        <v>29554303</v>
-      </c>
-      <c r="H4" t="n">
-        <v>38.6814563197696</v>
-      </c>
+        <v>27.21</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -566,26 +656,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2017</v>
-      </c>
-      <c r="C5" t="n">
-        <v>108.02</v>
-      </c>
+        <v>1953</v>
+      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
-        <v>120839.638993436</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F5" t="n">
-        <v>38.24644308</v>
-      </c>
-      <c r="G5" t="n">
-        <v>30222262</v>
-      </c>
-      <c r="H5" t="n">
-        <v>42.0184229710314</v>
-      </c>
+        <v>27.23</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -594,26 +689,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2018</v>
-      </c>
-      <c r="C6" t="n">
-        <v>113.29</v>
-      </c>
+        <v>1954</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="n">
-        <v>122175.41599929</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F6" t="n">
-        <v>27.55025754</v>
-      </c>
-      <c r="G6" t="n">
-        <v>30870641</v>
-      </c>
-      <c r="H6" t="n">
-        <v>41.1367142423322</v>
-      </c>
+        <v>27.26</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -622,26 +722,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2019</v>
-      </c>
-      <c r="C7" t="n">
-        <v>119.88</v>
-      </c>
+        <v>1955</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="n">
-        <v>124799.742991806</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F7" t="n">
-        <v>40.13605931</v>
-      </c>
-      <c r="G7" t="n">
-        <v>31522290</v>
-      </c>
-      <c r="H7" t="n">
-        <v>40.1761815559647</v>
-      </c>
+        <v>27.14</v>
+      </c>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -650,26 +755,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2020</v>
-      </c>
-      <c r="C8" t="n">
-        <v>123.03</v>
-      </c>
+        <v>1956</v>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
-        <v>126037.3999918203</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F8" t="n">
-        <v>50.11192382</v>
-      </c>
-      <c r="G8" t="n">
-        <v>32180401</v>
-      </c>
-      <c r="H8" t="n">
-        <v>40.4799899616882</v>
-      </c>
+        <v>27.1</v>
+      </c>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -678,26 +788,4153 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>1957</v>
+      </c>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="n">
+        <v>27.26</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1958</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1959</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1960</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>6911510</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1961</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>18.07</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7109029</v>
+      </c>
+      <c r="I13" t="n">
+        <v>133</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>-0.114</v>
+      </c>
+      <c r="M13" t="n">
+        <v>175</v>
+      </c>
+      <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R13" t="n">
+        <v>51.41953063</v>
+      </c>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="n">
+        <v>-0.114</v>
+      </c>
+      <c r="U13" t="n">
+        <v>0.422352941</v>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="n">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1962</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="n">
+        <v>27.2</v>
+      </c>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>18.83</v>
+      </c>
+      <c r="H14" t="n">
+        <v>7281192</v>
+      </c>
+      <c r="I14" t="n">
+        <v>324</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>-0.178</v>
+      </c>
+      <c r="M14" t="n">
+        <v>713</v>
+      </c>
+      <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R14" t="n">
+        <v>51.41953063</v>
+      </c>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="n">
+        <v>-0.178</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.135294118</v>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="n">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1963</v>
+      </c>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="H15" t="n">
+        <v>7458243</v>
+      </c>
+      <c r="I15" t="n">
+        <v>500</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="M15" t="n">
+        <v>800</v>
+      </c>
+      <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R15" t="n">
+        <v>51.41953063</v>
+      </c>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.235294118</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1964</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="n">
+        <v>26.87</v>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>21.7</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7640196</v>
+      </c>
+      <c r="I16" t="n">
+        <v>700</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>-0.195</v>
+      </c>
+      <c r="M16" t="n">
+        <v>154</v>
+      </c>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R16" t="n">
+        <v>51.41953063</v>
+      </c>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="n">
+        <v>-0.195</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0.866470588</v>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>1965</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>27.07</v>
+      </c>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="H17" t="n">
+        <v>7827726</v>
+      </c>
+      <c r="I17" t="n">
+        <v>434</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>-0.126</v>
+      </c>
+      <c r="M17" t="n">
+        <v>200</v>
+      </c>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R17" t="n">
+        <v>51.41953063</v>
+      </c>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="n">
+        <v>-0.126</v>
+      </c>
+      <c r="U17" t="n">
+        <v>0.6670588240000001</v>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="n">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1966</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="H18" t="n">
+        <v>8019658</v>
+      </c>
+      <c r="I18" t="n">
+        <v>500</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="M18" t="n">
+        <v>300</v>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R18" t="n">
+        <v>51.41953063</v>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="n">
+        <v>0.083</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0.705882353</v>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1967</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>24.79</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8216086</v>
+      </c>
+      <c r="I19" t="n">
+        <v>507</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>-0.177</v>
+      </c>
+      <c r="M19" t="n">
+        <v>512</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R19" t="n">
+        <v>51.41953063</v>
+      </c>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="n">
+        <v>-0.177</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.775882353</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1968</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>27.14</v>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>8418152</v>
+      </c>
+      <c r="I20" t="n">
+        <v>713</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+      <c r="M20" t="n">
+        <v>433</v>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R20" t="n">
+        <v>51.41953063</v>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="n">
+        <v>-0.08500000000000001</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0.797647059</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>1969</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="H21" t="n">
+        <v>8629855</v>
+      </c>
+      <c r="I21" t="n">
+        <v>699</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="M21" t="n">
+        <v>369</v>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R21" t="n">
+        <v>51.41953063</v>
+      </c>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="n">
+        <v>0.354</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0.698823529</v>
+      </c>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>1970</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>27.16</v>
+      </c>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>28.28</v>
+      </c>
+      <c r="H22" t="n">
+        <v>8861895</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1323</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1375</v>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R22" t="n">
+        <v>51.41953063</v>
+      </c>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="n">
+        <v>0.358</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.966470588</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="W22" t="n">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>1971</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>28.61</v>
+      </c>
+      <c r="H23" t="n">
+        <v>9108878</v>
+      </c>
+      <c r="I23" t="n">
+        <v>938</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>-0.112</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1107</v>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R23" t="n">
+        <v>51.41953063</v>
+      </c>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="n">
+        <v>-0.112</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.697058824</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0.322733333</v>
+      </c>
+      <c r="W23" t="n">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1972</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>27.15</v>
+      </c>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30.64</v>
+      </c>
+      <c r="H24" t="n">
+        <v>9365952</v>
+      </c>
+      <c r="I24" t="n">
+        <v>866</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2586</v>
+      </c>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R24" t="n">
+        <v>51.41953063</v>
+      </c>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.648235294</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0.345466667</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1973</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30.49</v>
+      </c>
+      <c r="H25" t="n">
+        <v>9637197</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2097</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2946</v>
+      </c>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R25" t="n">
+        <v>51.41953063</v>
+      </c>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="n">
+        <v>0.606</v>
+      </c>
+      <c r="U25" t="n">
+        <v>3.907058824</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0.3682</v>
+      </c>
+      <c r="W25" t="n">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1974</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>28.15</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="G26" t="n">
+        <v>31.24</v>
+      </c>
+      <c r="H26" t="n">
+        <v>9918979</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3217</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3782</v>
+      </c>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R26" t="n">
+        <v>51.41953063</v>
+      </c>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="U26" t="n">
+        <v>5.722941176</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0.390933333</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>1975</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>26.14</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>27.09</v>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="G27" t="n">
+        <v>32.33</v>
+      </c>
+      <c r="H27" t="n">
+        <v>10209848</v>
+      </c>
+      <c r="I27" t="n">
+        <v>8900</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>-0.194</v>
+      </c>
+      <c r="M27" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R27" t="n">
+        <v>51.8590138</v>
+      </c>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="n">
+        <v>-0.194</v>
+      </c>
+      <c r="U27" t="n">
+        <v>13.61111111</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0.413666667</v>
+      </c>
+      <c r="W27" t="n">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>1976</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>22.94</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>27.17</v>
+      </c>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="G28" t="n">
+        <v>31.9</v>
+      </c>
+      <c r="H28" t="n">
+        <v>10509006</v>
+      </c>
+      <c r="I28" t="n">
+        <v>5200</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="M28" t="n">
+        <v>12000</v>
+      </c>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R28" t="n">
+        <v>51.8590138</v>
+      </c>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="U28" t="n">
+        <v>11.38888889</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0.4364</v>
+      </c>
+      <c r="W28" t="n">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1977</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>19.64</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>1800000</v>
+      </c>
+      <c r="G29" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="H29" t="n">
+        <v>10825496</v>
+      </c>
+      <c r="I29" t="n">
+        <v>12200</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="M29" t="n">
+        <v>10100</v>
+      </c>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R29" t="n">
+        <v>51.8590138</v>
+      </c>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="n">
+        <v>0.326</v>
+      </c>
+      <c r="U29" t="n">
+        <v>17.33333333</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0.459133333</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8900</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1978</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>19.4</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>27.18</v>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="G30" t="n">
+        <v>36.08</v>
+      </c>
+      <c r="H30" t="n">
+        <v>11163230</v>
+      </c>
+      <c r="I30" t="n">
+        <v>4200</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="M30" t="n">
+        <v>10600</v>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R30" t="n">
+        <v>52.29849697</v>
+      </c>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="n">
+        <v>0.094</v>
+      </c>
+      <c r="U30" t="n">
+        <v>10</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0.481866667</v>
+      </c>
+      <c r="W30" t="n">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1979</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>20.16</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="G31" t="n">
+        <v>37.66</v>
+      </c>
+      <c r="H31" t="n">
+        <v>11515675</v>
+      </c>
+      <c r="I31" t="n">
+        <v>5900</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="M31" t="n">
+        <v>8400</v>
+      </c>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R31" t="n">
+        <v>52.29849697</v>
+      </c>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="n">
+        <v>0.593</v>
+      </c>
+      <c r="U31" t="n">
+        <v>9.736842104999999</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0.5046</v>
+      </c>
+      <c r="W31" t="n">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>1980</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>19.99</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>27.25</v>
+      </c>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="G32" t="n">
+        <v>40</v>
+      </c>
+      <c r="H32" t="n">
+        <v>11865246</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R32" t="n">
+        <v>52.29849697</v>
+      </c>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="U32" t="n">
+        <v>6.315789474</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0.527333333</v>
+      </c>
+      <c r="W32" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>1981</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>27.35</v>
+      </c>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="G33" t="n">
+        <v>41.52</v>
+      </c>
+      <c r="H33" t="n">
+        <v>12212960</v>
+      </c>
+      <c r="I33" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="M33" t="n">
+        <v>13000</v>
+      </c>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R33" t="n">
+        <v>52.29849697</v>
+      </c>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="n">
+        <v>0.221</v>
+      </c>
+      <c r="U33" t="n">
+        <v>15.26315789</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.550066667</v>
+      </c>
+      <c r="W33" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1982</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>17.93</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="G34" t="n">
+        <v>43.94</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12584976</v>
+      </c>
+      <c r="I34" t="n">
+        <v>5600</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="M34" t="n">
+        <v>12500</v>
+      </c>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R34" t="n">
+        <v>53.14230465</v>
+      </c>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="n">
+        <v>0.218</v>
+      </c>
+      <c r="U34" t="n">
+        <v>12.9047619</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0.5728</v>
+      </c>
+      <c r="W34" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1983</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>17.78</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>27.21</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="G35" t="n">
+        <v>47.19</v>
+      </c>
+      <c r="H35" t="n">
+        <v>12984131</v>
+      </c>
+      <c r="I35" t="n">
+        <v>7000</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="M35" t="n">
+        <v>11000</v>
+      </c>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R35" t="n">
+        <v>53.107146</v>
+      </c>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="U35" t="n">
+        <v>10.19047619</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0.595533333</v>
+      </c>
+      <c r="W35" t="n">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1984</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>23.15</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>27.23</v>
+      </c>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>2300000</v>
+      </c>
+      <c r="G36" t="n">
+        <v>46.93</v>
+      </c>
+      <c r="H36" t="n">
+        <v>13342487</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1400</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R36" t="n">
+        <v>53.95095368</v>
+      </c>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="U36" t="n">
+        <v>3.652173913</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.618266667</v>
+      </c>
+      <c r="W36" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>1985</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>27.22</v>
+      </c>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="G37" t="n">
+        <v>46.97</v>
+      </c>
+      <c r="H37" t="n">
+        <v>13651443</v>
+      </c>
+      <c r="I37" t="n">
+        <v>4300</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5000</v>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R37" t="n">
+        <v>54.35527819</v>
+      </c>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="n">
+        <v>0.401</v>
+      </c>
+      <c r="U37" t="n">
+        <v>5.208333333</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="W37" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>1986</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>24.86</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>27.37</v>
+      </c>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="G38" t="n">
+        <v>46.95</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13971682</v>
+      </c>
+      <c r="I38" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4100</v>
+      </c>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R38" t="n">
+        <v>54.32011954</v>
+      </c>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="U38" t="n">
+        <v>3.166666667</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0.663733333</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1987</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>25.21</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>27.28</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="n">
+        <v>2500000</v>
+      </c>
+      <c r="G39" t="n">
+        <v>48.31</v>
+      </c>
+      <c r="H39" t="n">
+        <v>14310790</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2693</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5140</v>
+      </c>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R39" t="n">
+        <v>54.72444405</v>
+      </c>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="n">
+        <v>1.045</v>
+      </c>
+      <c r="U39" t="n">
+        <v>4.3544</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.686466667</v>
+      </c>
+      <c r="W39" t="n">
+        <v>3053</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1988</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>27.36</v>
+      </c>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="G40" t="n">
+        <v>48.65</v>
+      </c>
+      <c r="H40" t="n">
+        <v>14671677</v>
+      </c>
+      <c r="I40" t="n">
+        <v>2793</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="M40" t="n">
+        <v>7049</v>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R40" t="n">
+        <v>55.12876857</v>
+      </c>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="n">
+        <v>0.729</v>
+      </c>
+      <c r="U40" t="n">
+        <v>4.867307692</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.7092000000000001</v>
+      </c>
+      <c r="W40" t="n">
+        <v>2813</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>1989</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>27.33</v>
+      </c>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="G41" t="n">
+        <v>50.17</v>
+      </c>
+      <c r="H41" t="n">
+        <v>15052447</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1177</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5783</v>
+      </c>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R41" t="n">
+        <v>55.09360991</v>
+      </c>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="U41" t="n">
+        <v>3.261538462</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.731933333</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>1990</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>23.28</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>27.49</v>
+      </c>
+      <c r="E42" t="n">
+        <v>60.84589948</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2700000</v>
+      </c>
+      <c r="G42" t="n">
+        <v>50.64</v>
+      </c>
+      <c r="H42" t="n">
+        <v>15446982</v>
+      </c>
+      <c r="I42" t="n">
+        <v>3000</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="M42" t="n">
+        <v>8000</v>
+      </c>
+      <c r="N42" t="n">
+        <v>4.338</v>
+      </c>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R42" t="n">
+        <v>55.49793443</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>0.623</v>
+      </c>
+      <c r="U42" t="n">
+        <v>4.814814815</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.754666667</v>
+      </c>
+      <c r="W42" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1991</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>34.69</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>27.38</v>
+      </c>
+      <c r="E43" t="n">
+        <v>56.87535025</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="G43" t="n">
+        <v>51.98</v>
+      </c>
+      <c r="H43" t="n">
+        <v>15843471</v>
+      </c>
+      <c r="I43" t="n">
+        <v>200</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>63.436070381</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="M43" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N43" t="n">
+        <v>3.5197</v>
+      </c>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R43" t="n">
+        <v>55.90225894</v>
+      </c>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.857142857</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.7774</v>
+      </c>
+      <c r="W43" t="n">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1992</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>34.33</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>27.06</v>
+      </c>
+      <c r="E44" t="n">
+        <v>53.8815753</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="G44" t="n">
+        <v>51.6</v>
+      </c>
+      <c r="H44" t="n">
+        <v>16241548</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>62.3793328620264</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="M44" t="n">
+        <v>7000</v>
+      </c>
+      <c r="N44" t="n">
+        <v>3.4996</v>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R44" t="n">
+        <v>55.90225894</v>
+      </c>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="n">
+        <v>0.217</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3.607142857</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.800133333</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>1993</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>37.23</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>27.12</v>
+      </c>
+      <c r="E45" t="n">
+        <v>51.81032761</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="G45" t="n">
+        <v>52.17</v>
+      </c>
+      <c r="H45" t="n">
+        <v>16643633</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1365</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>61.4648399714138</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5203</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R45" t="n">
+        <v>56.25384548</v>
+      </c>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="n">
+        <v>0.556</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.702857143</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0.822866667</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1994</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>27.27</v>
+      </c>
+      <c r="E46" t="n">
+        <v>50.60736015</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2800000</v>
+      </c>
+      <c r="G46" t="n">
+        <v>53.08</v>
+      </c>
+      <c r="H46" t="n">
+        <v>17040854</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2000</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>60.514120660709</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2700</v>
+      </c>
+      <c r="N46" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R46" t="n">
+        <v>56.69332865</v>
+      </c>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="n">
+        <v>0.634</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0.8456</v>
+      </c>
+      <c r="W46" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>1995</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>41.75</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>27.32</v>
+      </c>
+      <c r="E47" t="n">
+        <v>50.21842589</v>
+      </c>
+      <c r="F47" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="G47" t="n">
+        <v>51.26</v>
+      </c>
+      <c r="H47" t="n">
+        <v>17438874</v>
+      </c>
+      <c r="I47" t="n">
+        <v>2500</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>59.446742535115</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3200</v>
+      </c>
+      <c r="N47" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R47" t="n">
+        <v>57.57229498</v>
+      </c>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="n">
+        <v>0.785</v>
+      </c>
+      <c r="U47" t="n">
+        <v>3.233333333</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.868333333</v>
+      </c>
+      <c r="W47" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>1996</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>45.76</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>27.31</v>
+      </c>
+      <c r="E48" t="n">
+        <v>51.55878229</v>
+      </c>
+      <c r="F48" t="n">
+        <v>3200000</v>
+      </c>
+      <c r="G48" t="n">
+        <v>52.86</v>
+      </c>
+      <c r="H48" t="n">
+        <v>17844010</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3500</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>58.3943247651104</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="M48" t="n">
+        <v>7200</v>
+      </c>
+      <c r="N48" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R48" t="n">
+        <v>58.45126132</v>
+      </c>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="n">
+        <v>0.741</v>
+      </c>
+      <c r="U48" t="n">
+        <v>5.4375</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0.891066667</v>
+      </c>
+      <c r="W48" t="n">
+        <v>6700</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>1997</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>27.48</v>
+      </c>
+      <c r="E49" t="n">
+        <v>54.75501677</v>
+      </c>
+      <c r="F49" t="n">
+        <v>3600000</v>
+      </c>
+      <c r="G49" t="n">
+        <v>52.07</v>
+      </c>
+      <c r="H49" t="n">
+        <v>18268040</v>
+      </c>
+      <c r="I49" t="n">
+        <v>5955</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="n">
+        <v>57.184727688144</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="M49" t="n">
+        <v>8706</v>
+      </c>
+      <c r="N49" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R49" t="n">
+        <v>59.69365826</v>
+      </c>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="n">
+        <v>0.583</v>
+      </c>
+      <c r="U49" t="n">
+        <v>5.921111111</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.9137999999999999</v>
+      </c>
+      <c r="W49" t="n">
+        <v>6655</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1998</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>48.63</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>27.46</v>
+      </c>
+      <c r="E50" t="n">
+        <v>58.56987729</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3648256.5</v>
+      </c>
+      <c r="G50" t="n">
+        <v>51.91</v>
+      </c>
+      <c r="H50" t="n">
+        <v>18714708</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3654</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>56.0875121904645</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1.242</v>
+      </c>
+      <c r="M50" t="n">
+        <v>7274</v>
+      </c>
+      <c r="N50" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R50" t="n">
+        <v>57.06781533</v>
+      </c>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="n">
+        <v>1.242</v>
+      </c>
+      <c r="U50" t="n">
+        <v>4.161988062</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.936533333</v>
+      </c>
+      <c r="W50" t="n">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>1999</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>51.43</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>27.44</v>
+      </c>
+      <c r="E51" t="n">
+        <v>61.76611178</v>
+      </c>
+      <c r="F51" t="n">
+        <v>3696513</v>
+      </c>
+      <c r="G51" t="n">
+        <v>54.17</v>
+      </c>
+      <c r="H51" t="n">
+        <v>19176791</v>
+      </c>
+      <c r="I51" t="n">
+        <v>4202</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="n">
+        <v>54.9450549450549</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="M51" t="n">
+        <v>8002</v>
+      </c>
+      <c r="N51" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R51" t="n">
+        <v>57.3945258</v>
+      </c>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="n">
+        <v>0.636</v>
+      </c>
+      <c r="U51" t="n">
+        <v>4.16771157</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0.959266667</v>
+      </c>
+      <c r="W51" t="n">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>51.53</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>27.56</v>
+      </c>
+      <c r="E52" t="n">
+        <v>63.10646818</v>
+      </c>
+      <c r="F52" t="n">
+        <v>3744769.6</v>
+      </c>
+      <c r="G52" t="n">
+        <v>59.86</v>
+      </c>
+      <c r="H52" t="n">
+        <v>19665502</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2719</v>
+      </c>
+      <c r="J52" t="n">
+        <v>60.36841</v>
+      </c>
+      <c r="K52" t="n">
+        <v>53.1266830081649</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="M52" t="n">
+        <v>7048</v>
+      </c>
+      <c r="N52" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R52" t="n">
+        <v>56.10231212</v>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="T52" t="n">
+        <v>0.502</v>
+      </c>
+      <c r="U52" t="n">
+        <v>3.174027048</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>2001</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="E53" t="n">
+        <v>61.75777732</v>
+      </c>
+      <c r="F53" t="n">
+        <v>3793026.1</v>
+      </c>
+      <c r="G53" t="n">
+        <v>59.56</v>
+      </c>
+      <c r="H53" t="n">
+        <v>20195577</v>
+      </c>
+      <c r="I53" t="n">
+        <v>8590</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>53.5926981314993</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="M53" t="n">
+        <v>14169</v>
+      </c>
+      <c r="N53" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R53" t="n">
+        <v>56.68467434</v>
+      </c>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="U53" t="n">
+        <v>8.18001226</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.009125</v>
+      </c>
+      <c r="W53" t="n">
+        <v>8268</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>2002</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>59.72</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="E54" t="n">
+        <v>58.50799901</v>
+      </c>
+      <c r="F54" t="n">
+        <v>3841282.6</v>
+      </c>
+      <c r="G54" t="n">
+        <v>60.5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>20758326</v>
+      </c>
+      <c r="I54" t="n">
+        <v>120</v>
+      </c>
+      <c r="J54" t="n">
+        <v>57.00822</v>
+      </c>
+      <c r="K54" t="n">
+        <v>53.9755670525634</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4330</v>
+      </c>
+      <c r="N54" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R54" t="n">
+        <v>57.35466072</v>
+      </c>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="n">
+        <v>0.9370000000000001</v>
+      </c>
+      <c r="U54" t="n">
+        <v>4.076763319</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.03625</v>
+      </c>
+      <c r="W54" t="n">
+        <v>11210</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>2003</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>62.29</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="E55" t="n">
+        <v>54.55157468</v>
+      </c>
+      <c r="F55" t="n">
+        <v>3889539.1</v>
+      </c>
+      <c r="G55" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="H55" t="n">
+        <v>21329514</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2834</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="n">
+        <v>54.2666944584696</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="M55" t="n">
+        <v>8559</v>
+      </c>
+      <c r="N55" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R55" t="n">
+        <v>55.33589347</v>
+      </c>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="U55" t="n">
+        <v>7.358455402</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.063375</v>
+      </c>
+      <c r="W55" t="n">
+        <v>17228</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>2004</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>64.91</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>27.63</v>
+      </c>
+      <c r="E56" t="n">
+        <v>51.08294575</v>
+      </c>
+      <c r="F56" t="n">
+        <v>3937795.7</v>
+      </c>
+      <c r="G56" t="n">
+        <v>65.04000000000001</v>
+      </c>
+      <c r="H56" t="n">
+        <v>21906444</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3584</v>
+      </c>
+      <c r="J56" t="n">
+        <v>53.64802</v>
+      </c>
+      <c r="K56" t="n">
+        <v>54.5363192972876</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5702</v>
+      </c>
+      <c r="N56" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R56" t="n">
+        <v>52.16477938</v>
+      </c>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="n">
+        <v>0.865</v>
+      </c>
+      <c r="U56" t="n">
+        <v>13.40902475</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.0905</v>
+      </c>
+      <c r="W56" t="n">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>2005</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>66.73</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>27.6</v>
+      </c>
+      <c r="E57" t="n">
+        <v>49.29655363</v>
+      </c>
+      <c r="F57" t="n">
+        <v>3986052.2</v>
+      </c>
+      <c r="G57" t="n">
+        <v>66.61</v>
+      </c>
+      <c r="H57" t="n">
+        <v>22496951</v>
+      </c>
+      <c r="I57" t="n">
+        <v>6306</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>54.6411888759255</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="M57" t="n">
+        <v>11105</v>
+      </c>
+      <c r="N57" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R57" t="n">
+        <v>53.26351235</v>
+      </c>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="n">
+        <v>1.103</v>
+      </c>
+      <c r="U57" t="n">
+        <v>6.019740534</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.117625</v>
+      </c>
+      <c r="W57" t="n">
+        <v>6584</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2006</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>68.47</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>27.59</v>
+      </c>
+      <c r="E58" t="n">
+        <v>48.78541182</v>
+      </c>
+      <c r="F58" t="n">
+        <v>4034308.7</v>
+      </c>
+      <c r="G58" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="H58" t="n">
+        <v>23098586</v>
+      </c>
+      <c r="I58" t="n">
+        <v>15196</v>
+      </c>
+      <c r="J58" t="n">
+        <v>50.28782</v>
+      </c>
+      <c r="K58" t="n">
+        <v>54.8964414928147</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="M58" t="n">
+        <v>30171</v>
+      </c>
+      <c r="N58" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R58" t="n">
+        <v>52.93043992</v>
+      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="U58" t="n">
+        <v>20.88362747</v>
+      </c>
+      <c r="V58" t="n">
+        <v>1.14475</v>
+      </c>
+      <c r="W58" t="n">
+        <v>38884</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>2007</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>66.27</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>27.61</v>
+      </c>
+      <c r="E59" t="n">
+        <v>48.35785834</v>
+      </c>
+      <c r="F59" t="n">
+        <v>4082565.2</v>
+      </c>
+      <c r="G59" t="n">
+        <v>73.33</v>
+      </c>
+      <c r="H59" t="n">
+        <v>23708320</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13340</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>51.9201930932183</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="M59" t="n">
+        <v>25924</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R59" t="n">
+        <v>54.81344818</v>
+      </c>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="n">
+        <v>1.072</v>
+      </c>
+      <c r="U59" t="n">
+        <v>18.70588619</v>
+      </c>
+      <c r="V59" t="n">
+        <v>1.171875</v>
+      </c>
+      <c r="W59" t="n">
+        <v>37104</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>2008</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>74.55</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>27.64</v>
+      </c>
+      <c r="E60" t="n">
+        <v>48.03132141</v>
+      </c>
+      <c r="F60" t="n">
+        <v>4130821.7</v>
+      </c>
+      <c r="G60" t="n">
+        <v>76.75</v>
+      </c>
+      <c r="H60" t="n">
+        <v>24326087</v>
+      </c>
+      <c r="I60" t="n">
+        <v>9933</v>
+      </c>
+      <c r="J60" t="n">
+        <v>46.92763</v>
+      </c>
+      <c r="K60" t="n">
+        <v>48.5831659463895</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="M60" t="n">
+        <v>18374</v>
+      </c>
+      <c r="N60" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R60" t="n">
+        <v>52.75890261</v>
+      </c>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="U60" t="n">
+        <v>15.84987316</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.199</v>
+      </c>
+      <c r="W60" t="n">
+        <v>37166</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>2009</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>27.68</v>
+      </c>
+      <c r="E61" t="n">
+        <v>47.82322922</v>
+      </c>
+      <c r="F61" t="n">
+        <v>4179078.3</v>
+      </c>
+      <c r="G61" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="H61" t="n">
+        <v>24950762</v>
+      </c>
+      <c r="I61" t="n">
+        <v>33515</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>45.3955956245759</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="M61" t="n">
+        <v>21160</v>
+      </c>
+      <c r="N61" t="n">
+        <v>9</v>
+      </c>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R61" t="n">
+        <v>54.10242287</v>
+      </c>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="U61" t="n">
+        <v>20.89120943</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.226125</v>
+      </c>
+      <c r="W61" t="n">
+        <v>32631</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>83.88</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>27.76</v>
+      </c>
+      <c r="E62" t="n">
+        <v>47.75100997</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4227334.8</v>
+      </c>
+      <c r="G62" t="n">
+        <v>83.62</v>
+      </c>
+      <c r="H62" t="n">
+        <v>25574719</v>
+      </c>
+      <c r="I62" t="n">
+        <v>24799</v>
+      </c>
+      <c r="J62" t="n">
+        <v>43.56743</v>
+      </c>
+      <c r="K62" t="n">
+        <v>41.9954388582183</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M62" t="n">
+        <v>24835</v>
+      </c>
+      <c r="N62" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R62" t="n">
+        <v>54.49783774</v>
+      </c>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U62" t="n">
+        <v>20.43722678</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.25325</v>
+      </c>
+      <c r="W62" t="n">
+        <v>36761</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>2011</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>87.35</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="E63" t="n">
+        <v>52.80143161</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4275591.3</v>
+      </c>
+      <c r="G63" t="n">
+        <v>86.45999999999999</v>
+      </c>
+      <c r="H63" t="n">
+        <v>26205941</v>
+      </c>
+      <c r="I63" t="n">
+        <v>17856</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>42.8580293817781</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="M63" t="n">
+        <v>10738</v>
+      </c>
+      <c r="N63" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R63" t="n">
+        <v>54.09091017</v>
+      </c>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="n">
+        <v>0.991</v>
+      </c>
+      <c r="U63" t="n">
+        <v>14.6056991</v>
+      </c>
+      <c r="V63" t="n">
+        <v>1.283375</v>
+      </c>
+      <c r="W63" t="n">
+        <v>33854</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>2012</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>27.83</v>
+      </c>
+      <c r="E64" t="n">
+        <v>56.95704233</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4323847.8</v>
+      </c>
+      <c r="G64" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="H64" t="n">
+        <v>26858762</v>
+      </c>
+      <c r="I64" t="n">
+        <v>70190</v>
+      </c>
+      <c r="J64" t="n">
+        <v>40.20724</v>
+      </c>
+      <c r="K64" t="n">
+        <v>44.205608490377</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="M64" t="n">
+        <v>42320</v>
+      </c>
+      <c r="N64" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R64" t="n">
+        <v>54.27765843</v>
+      </c>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="U64" t="n">
+        <v>37.78139462</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.3155</v>
+      </c>
+      <c r="W64" t="n">
+        <v>50851</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2013</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>27.84</v>
+      </c>
+      <c r="E65" t="n">
+        <v>44.73062367</v>
+      </c>
+      <c r="F65" t="n">
+        <v>4372104.3</v>
+      </c>
+      <c r="G65" t="n">
+        <v>93.20999999999999</v>
+      </c>
+      <c r="H65" t="n">
+        <v>27525597</v>
+      </c>
+      <c r="I65" t="n">
+        <v>39045</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>45.3794884561417</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="M65" t="n">
+        <v>45343</v>
+      </c>
+      <c r="N65" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R65" t="n">
+        <v>54.77312165</v>
+      </c>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="n">
+        <v>0.989</v>
+      </c>
+      <c r="U65" t="n">
+        <v>27.15351507</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.337625</v>
+      </c>
+      <c r="W65" t="n">
+        <v>34330</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>2014</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>27.9</v>
+      </c>
+      <c r="E66" t="n">
+        <v>43.96272936</v>
+      </c>
+      <c r="F66" t="n">
+        <v>4420360.9</v>
+      </c>
+      <c r="G66" t="n">
+        <v>95.84999999999999</v>
+      </c>
+      <c r="H66" t="n">
+        <v>28196358</v>
+      </c>
+      <c r="I66" t="n">
+        <v>15634</v>
+      </c>
+      <c r="J66" t="n">
+        <v>36.84704</v>
+      </c>
+      <c r="K66" t="n">
+        <v>40.4439000303461</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="M66" t="n">
+        <v>38177</v>
+      </c>
+      <c r="N66" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O66" t="n">
+        <v>123746.548002968</v>
+      </c>
+      <c r="P66" t="n">
+        <v>11403706.84171849</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R66" t="n">
+        <v>54.38452492</v>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>0.993</v>
+      </c>
+      <c r="U66" t="n">
+        <v>16.69546937</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.36095</v>
+      </c>
+      <c r="W66" t="n">
+        <v>19989</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>2015</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>68.01122848999999</v>
+      </c>
+      <c r="F67" t="n">
+        <v>4468617.4</v>
+      </c>
+      <c r="G67" t="n">
+        <v>101.47</v>
+      </c>
+      <c r="H67" t="n">
+        <v>28870939</v>
+      </c>
+      <c r="I67" t="n">
+        <v>36600</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="n">
+        <v>35.1775904297479</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="M67" t="n">
+        <v>42900</v>
+      </c>
+      <c r="N67" t="n">
+        <v>21.96</v>
+      </c>
+      <c r="O67" t="n">
+        <v>124155.144994068</v>
+      </c>
+      <c r="P67" t="n">
+        <v>10156100.67464235</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R67" t="n">
+        <v>54.56409642</v>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>1.221</v>
+      </c>
+      <c r="U67" t="n">
+        <v>24.97416763</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1.438475</v>
+      </c>
+      <c r="W67" t="n">
+        <v>32100</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>2016</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>101.05</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>62.88896429</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4516873.9</v>
+      </c>
+      <c r="G68" t="n">
+        <v>102.68</v>
+      </c>
+      <c r="H68" t="n">
+        <v>29554303</v>
+      </c>
+      <c r="I68" t="n">
+        <v>26600</v>
+      </c>
+      <c r="J68" t="n">
+        <v>33.48685</v>
+      </c>
+      <c r="K68" t="n">
+        <v>38.6814563197696</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="M68" t="n">
+        <v>42900</v>
+      </c>
+      <c r="N68" t="n">
+        <v>29.52</v>
+      </c>
+      <c r="O68" t="n">
+        <v>123579.42198909</v>
+      </c>
+      <c r="P68" t="n">
+        <v>11432034.80555736</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R68" t="n">
+        <v>54.31107585</v>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="U68" t="n">
+        <v>22.29418005</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1.4486</v>
+      </c>
+      <c r="W68" t="n">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>2017</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>108.02</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>60.35903417</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4565130.4</v>
+      </c>
+      <c r="G69" t="n">
+        <v>106.21</v>
+      </c>
+      <c r="H69" t="n">
+        <v>30222262</v>
+      </c>
+      <c r="I69" t="n">
+        <v>45200</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>42.0184229710314</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="M69" t="n">
+        <v>82000</v>
+      </c>
+      <c r="N69" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="O69" t="n">
+        <v>120839.638993436</v>
+      </c>
+      <c r="P69" t="n">
+        <v>12698917.87857329</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R69" t="n">
+        <v>53.10698734</v>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>1.474</v>
+      </c>
+      <c r="U69" t="n">
+        <v>38.24644308</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1.4486</v>
+      </c>
+      <c r="W69" t="n">
+        <v>47400</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>2018</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>113.29</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>56.00418258</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4613387</v>
+      </c>
+      <c r="G70" t="n">
+        <v>108.75</v>
+      </c>
+      <c r="H70" t="n">
+        <v>30870641</v>
+      </c>
+      <c r="I70" t="n">
+        <v>30700</v>
+      </c>
+      <c r="J70" t="n">
+        <v>33.48685</v>
+      </c>
+      <c r="K70" t="n">
+        <v>41.1367142423322</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="M70" t="n">
+        <v>65200</v>
+      </c>
+      <c r="N70" t="n">
+        <v>37.44</v>
+      </c>
+      <c r="O70" t="n">
+        <v>122175.41599929</v>
+      </c>
+      <c r="P70" t="n">
+        <v>12699167.37294624</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R70" t="n">
+        <v>53.69403885</v>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="U70" t="n">
+        <v>27.55025754</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1.4486</v>
+      </c>
+      <c r="W70" t="n">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>2019</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>119.88</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>49.6566317</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4661643.5</v>
+      </c>
+      <c r="G71" t="n">
+        <v>111.45</v>
+      </c>
+      <c r="H71" t="n">
+        <v>31522290</v>
+      </c>
+      <c r="I71" t="n">
+        <v>58300</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>40.1761815559647</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="M71" t="n">
+        <v>76500</v>
+      </c>
+      <c r="N71" t="n">
+        <v>41.04</v>
+      </c>
+      <c r="O71" t="n">
+        <v>124799.742991806</v>
+      </c>
+      <c r="P71" t="n">
+        <v>12664452.46099771</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>227540</v>
+      </c>
+      <c r="R71" t="n">
+        <v>54.84738639</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>1.395</v>
+      </c>
+      <c r="U71" t="n">
+        <v>40.13605931</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1.4486</v>
+      </c>
+      <c r="W71" t="n">
+        <v>52300</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>123.03</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>54.24278731</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4709900</v>
+      </c>
+      <c r="G72" t="n">
+        <v>115.62</v>
+      </c>
+      <c r="H72" t="n">
+        <v>32180401</v>
+      </c>
+      <c r="I72" t="n">
+        <v>84400</v>
+      </c>
+      <c r="J72" t="n">
+        <v>33.48685</v>
+      </c>
+      <c r="K72" t="n">
+        <v>40.4799899616882</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.397</v>
+      </c>
+      <c r="M72" t="n">
+        <v>80822.14999999999</v>
+      </c>
+      <c r="N72" t="n">
+        <v>44.64</v>
+      </c>
+      <c r="O72" t="n">
+        <v>126037.3999918203</v>
+      </c>
+      <c r="P72" t="n">
+        <v>13026623.09443101</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>227533</v>
+      </c>
+      <c r="R72" t="n">
+        <v>55.39301991</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>1.397</v>
+      </c>
+      <c r="U72" t="n">
+        <v>50.11192382</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.4486</v>
+      </c>
+      <c r="W72" t="n">
+        <v>70800</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
         <v>2021</v>
       </c>
-      <c r="C9" t="n">
-        <v>131.73</v>
-      </c>
-      <c r="D9" t="n">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>131.73</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr"/>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>4708900</v>
+      </c>
+      <c r="G73" t="n">
+        <v>116.02</v>
+      </c>
+      <c r="H73" t="n">
+        <v>32833031</v>
+      </c>
+      <c r="I73" t="n">
+        <v>49354.94</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>40.3435066358315</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M73" t="n">
+        <v>76839.34</v>
+      </c>
+      <c r="N73" t="n">
+        <v>20.4156</v>
+      </c>
+      <c r="O73" t="n">
         <v>126037.3999918203</v>
       </c>
-      <c r="E9" t="n">
-        <v>1187</v>
-      </c>
-      <c r="F9" t="n">
+      <c r="P73" t="n">
+        <v>13245996.04022961</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>227533</v>
+      </c>
+      <c r="R73" t="n">
+        <v>55.39301991</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="U73" t="n">
         <v>37.37177048</v>
       </c>
-      <c r="G9" t="n">
-        <v>32833031</v>
-      </c>
-      <c r="H9" t="n">
-        <v>40.3435066358315</v>
-      </c>
+      <c r="V73" t="n">
+        <v>1.4486</v>
+      </c>
+      <c r="W73" t="n">
+        <v>49785.65</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>2022</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>137.06</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="n">
+        <v>119.16</v>
+      </c>
+      <c r="H74" t="n">
+        <v>33475870</v>
+      </c>
+      <c r="I74" t="n">
+        <v>60300</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>39.7412594531363</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="M74" t="n">
+        <v>77700</v>
+      </c>
+      <c r="N74" t="n">
+        <v>20.4156</v>
+      </c>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>1.144</v>
+      </c>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="n">
+        <v>36500</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>GHA</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>2023</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>34121985</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
